--- a/src/test/resources/sg/edu/ntu/sc2002/staff_list_name_change.xlsx
+++ b/src/test/resources/sg/edu/ntu/sc2002/staff_list_name_change.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">Branch</t>
   </si>
   <si>
+    <t xml:space="preserve">Alex</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
@@ -56,15 +59,24 @@
     <t xml:space="preserve">NTU</t>
   </si>
   <si>
+    <t xml:space="preserve">Bob</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
+    <t xml:space="preserve">Charile</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">JP</t>
   </si>
   <si>
+    <t xml:space="preserve">Dennis</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
@@ -74,7 +86,16 @@
     <t xml:space="preserve">JE</t>
   </si>
   <si>
+    <t xml:space="preserve">Elizabeth</t>
+  </si>
+  <si>
     <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace</t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
@@ -324,10 +345,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.55"/>
@@ -358,133 +379,133 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>56</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>49</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>62</v>
